--- a/biology/Zoologie/Eremias/Eremias.xlsx
+++ b/biology/Zoologie/Eremias/Eremias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eremias est un genre de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eremias est un genre de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 36 espèces de ce genre se rencontrent dans le sud de l'Eurasie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 36 espèces de ce genre se rencontrent dans le sud de l'Eurasie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (9 novembre 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (9 novembre 2017) :
 Eremias acutirostris (Boulenger, 1887)
 Eremias afghanistanica Böhme &amp; Scerbak, 1991
 Eremias andersoni Darevsky &amp; Szczerbak, 1978
@@ -608,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre, Eremias, vient du grec ερημιας, « du désert », en référence à l'habitat de ces animaux[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre, Eremias, vient du grec ερημιας, « du désert », en référence à l'habitat de ces animaux.
 </t>
         </is>
       </c>
@@ -639,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wiegmann, 1834 : Herpetologia mexicana, seu Descriptio amphibiorum Novae Hispaniae quae itineribus comitis De Sack, Ferdinandi Deppe et Chr. Guil. Schiede in Museum zoologicum Berolinense pervenerunt. Pars prima saurorum species amplectens, adjecto systematis saurorum prodromo, additisque multis in hunc amphibiorum ordinem observationibus. Lüderitz, Berlin, p. 1-54 (texte intégral).</t>
         </is>
